--- a/ArenaBattle/GameData/ABCharacterStatTable.xlsx
+++ b/ArenaBattle/GameData/ABCharacterStatTable.xlsx
@@ -412,7 +412,7 @@
   <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C3" sqref="C3:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -448,7 +448,7 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>40</v>
@@ -468,7 +468,7 @@
         <v>150</v>
       </c>
       <c r="C4">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D4">
         <v>40</v>
@@ -488,7 +488,7 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>40</v>
@@ -508,7 +508,7 @@
         <v>250</v>
       </c>
       <c r="C6">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="D6">
         <v>40</v>
@@ -528,7 +528,7 @@
         <v>300</v>
       </c>
       <c r="C7">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="D7">
         <v>40</v>
@@ -548,7 +548,7 @@
         <v>350</v>
       </c>
       <c r="C8">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D8">
         <v>40</v>
@@ -568,7 +568,7 @@
         <v>400</v>
       </c>
       <c r="C9">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D9">
         <v>40</v>
@@ -608,7 +608,7 @@
         <v>500</v>
       </c>
       <c r="C11">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="D11">
         <v>40</v>
@@ -628,7 +628,7 @@
         <v>550</v>
       </c>
       <c r="C12">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="D12">
         <v>40</v>
